--- a/chapter 1/CopyFormulas.xlsx
+++ b/chapter 1/CopyFormulas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Writing\Lynda\Excel 2019 Intro to F&amp;Fs\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C5BF4-DB64-4919-B920-D429DCB479AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08B1EF-9262-3A4C-B32B-4F8E3F7262A1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Growth Rate</t>
   </si>
   <si>
     <t>Investment</t>
+  </si>
+  <si>
+    <t>pasting only the values</t>
   </si>
 </sst>
 </file>
@@ -408,17 +411,17 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,9 +431,12 @@
       <c r="D1" s="1">
         <v>2022</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="2">
+        <f>B6</f>
+        <v>174575.83533378915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -438,7 +444,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
@@ -447,53 +453,84 @@
         <v>151887.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B11" si="0">B3*(1+$B$1)</f>
+        <v>159102.15625000003</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2021</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>166659.50867187505</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2022</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>174575.83533378915</v>
+      </c>
+      <c r="E6" s="2">
+        <v>174575.83533378915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2023</v>
       </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>182868.18751214416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2024</v>
       </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>191554.42641897101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2025</v>
       </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>200653.26167387216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2026</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>210184.29160338111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2027</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>220168.04545454172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
